--- a/Data/CWON/CWONDataSources.xlsx
+++ b/Data/CWON/CWONDataSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anshullalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xabajian/Documents/GitHub/Fenichel-NK/Data/CWON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CEE5C68-DF9C-0D42-89F4-5E4111EB2427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D8A2B-7FDE-ED46-A805-D1E4E63D0980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{F329308E-D31C-1D4C-AB3D-3D0100A172A2}"/>
+    <workbookView xWindow="20" yWindow="680" windowWidth="30240" windowHeight="17840" xr2:uid="{F329308E-D31C-1D4C-AB3D-3D0100A172A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927C0E9-D87B-EE4D-92DC-A2D4F2DB3815}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
